--- a/Xports/UD_French-GSD/fixed-VERB.xlsx
+++ b/Xports/UD_French-GSD/fixed-VERB.xlsx
@@ -9289,7 +9289,7 @@
         <v>745</v>
       </c>
       <c r="O142">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="143" spans="1:15">
@@ -9336,7 +9336,7 @@
         <v>745</v>
       </c>
       <c r="O143">
-        <v>1</v>
+        <v>-1</v>
       </c>
     </row>
     <row r="144" spans="1:15">
